--- a/public/certificates/certificate_type.xlsx
+++ b/public/certificates/certificate_type.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Desc</t>
   </si>
@@ -225,27 +225,6 @@
     <t>MS-Windows,MS-Office (Wordpad ,Ms-Word, Ms-Excel, Powerpoint ,Internet) &amp; Typing with speed of 40 Words Per Minutes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> OLD HDCA(WEB)</t>
-  </si>
-  <si>
-    <t>OLD HDCS(WEB)</t>
-  </si>
-  <si>
-    <t>OLD HDCS(WEB + DIG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OLD BASIC+EXCL(MIS)</t>
-  </si>
-  <si>
-    <t>OLD DTP</t>
-  </si>
-  <si>
-    <t>Coreldraw &amp; Photoshop</t>
-  </si>
-  <si>
-    <t>OLD DCA + ADV.EXCEL</t>
-  </si>
-  <si>
     <t>Graphic + MultiMedia</t>
   </si>
   <si>
@@ -292,15 +271,6 @@
   </si>
   <si>
     <t>CCA</t>
-  </si>
-  <si>
-    <t>WEB + PYTHON</t>
-  </si>
-  <si>
-    <t>Certificate In Computer Science</t>
-  </si>
-  <si>
-    <t>HTML,CSS,Javascript and PTYHON.</t>
   </si>
   <si>
     <t>TALLY+BUSY</t>
@@ -388,15 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -415,28 +382,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -733,32 +679,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26" style="5" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
+      <c r="A1" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -769,8 +715,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>105</v>
+      <c r="A3" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -780,7 +726,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -791,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -802,7 +748,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -813,7 +759,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -824,7 +770,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -835,7 +781,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
@@ -846,7 +792,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
@@ -857,7 +803,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
@@ -868,7 +814,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -879,7 +825,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
@@ -890,7 +836,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
@@ -901,7 +847,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
@@ -912,7 +858,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
@@ -923,17 +869,17 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B19" t="s">
@@ -944,7 +890,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
@@ -955,7 +901,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
@@ -966,12 +912,12 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B23" t="s">
@@ -982,17 +928,17 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
@@ -1003,17 +949,17 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1029,27 +975,27 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B35" t="s">
@@ -1060,179 +1006,122 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
+      <c r="C45" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>81</v>
+      <c r="A46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>82</v>
+      <c r="A47" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>83</v>
+      <c r="A48" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$M52="p"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$M52="c"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
